--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\An3Sem2\VVSS\Labs\Laborator1\CheckLists\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\An3Sem2\VVSS\Labs\fair3122\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DE718-C415-4E83-B1A6-580850942321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD1A3C-41D8-4665-A339-308EEC15CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>R07</t>
   </si>
   <si>
-    <t xml:space="preserve">Pentru o comanda ar trebui sepcifcata si masa caruia este atribuita. </t>
-  </si>
-  <si>
     <t>Linia 4/5</t>
   </si>
   <si>
@@ -171,12 +168,6 @@
   </si>
   <si>
     <t>Fîntîna Vlad</t>
-  </si>
-  <si>
-    <t>In requirements nu este specificat ca bucatariepoate fi inchisa doar daca nu mai exista clienti iun restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nu se specifica ce se intampla cand se deschide aolicatia in legatura cu incasarile din zilele anterioare </t>
   </si>
   <si>
     <t>1h</t>
@@ -387,6 +378,15 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):1h</t>
+  </si>
+  <si>
+    <t>In requirements nu este specificat ca bucataria poate fi inchisa doar daca nu mai exista clienti in restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu se specifica ce se intampla cand se deschide aplicatia in legatura cu incasarile din zilele anterioare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentru o comanda ar trebui specifcata si masa caruia este atribuita. </t>
   </si>
 </sst>
 </file>
@@ -613,6 +613,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -654,10 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +968,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -989,19 +989,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1014,8 +1014,8 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>42</v>
+      <c r="I3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1025,15 +1025,15 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>43</v>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="J4" s="6">
         <v>233</v>
@@ -1043,15 +1043,15 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>44</v>
+      <c r="I5" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1062,19 +1062,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1098,10 +1098,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2">
@@ -1113,10 +1113,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1303,19 +1303,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1328,8 +1328,8 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>42</v>
+      <c r="I3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1339,15 +1339,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>43</v>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="J4" s="6">
         <v>233</v>
@@ -1357,15 +1357,15 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>44</v>
+      <c r="I5" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1376,19 +1376,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1409,11 +1409,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8">
@@ -1422,24 +1422,24 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:C26" si="0">B11+1</f>
+        <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8">
@@ -1448,11 +1448,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2">
@@ -1461,11 +1461,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8">
@@ -1474,11 +1474,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1631,19 +1631,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1656,8 +1656,8 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>42</v>
+      <c r="I3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1667,15 +1667,15 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>43</v>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="J4" s="6">
         <v>233</v>
@@ -1685,15 +1685,15 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>44</v>
+      <c r="I5" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1704,19 +1704,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1737,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8">
@@ -1752,13 +1752,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1767,13 +1767,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2">
@@ -1782,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2">
@@ -1797,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8">
@@ -1812,13 +1812,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +1986,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2008,19 +2008,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -2033,8 +2033,8 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>42</v>
+      <c r="I3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -2044,13 +2044,13 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>43</v>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="J4" s="6">
         <v>233</v>
@@ -2060,15 +2060,15 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>44</v>
+      <c r="I5" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -2079,10 +2079,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -2102,21 +2102,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="273.60000000000002">
@@ -2125,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2143,16 +2143,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8">
@@ -2161,16 +2161,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8">
@@ -2179,16 +2179,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="244.8">
@@ -2197,16 +2197,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2360,11 +2360,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>
